--- a/01 Requirements engineering/Requirements Engineering.xlsx
+++ b/01 Requirements engineering/Requirements Engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview" sheetId="1" r:id="rId1"/>
@@ -890,17 +890,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1219,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
@@ -1236,15 +1236,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1383,14 +1383,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>1</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="12" t="s">
         <v>60</v>
       </c>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="12" t="s">
         <v>61</v>
       </c>
@@ -1412,14 +1412,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>2</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="12" t="s">
         <v>61</v>
       </c>
@@ -1440,14 +1440,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>3</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="12" t="s">
         <v>60</v>
       </c>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="12" t="s">
         <v>61</v>
       </c>
@@ -1468,14 +1468,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <v>4</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="12" t="s">
         <v>60</v>
       </c>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
         <v>61</v>
       </c>
@@ -1496,14 +1496,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="12" t="s">
         <v>60</v>
       </c>
@@ -1512,10 +1512,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="12" t="s">
         <v>61</v>
       </c>
@@ -1524,14 +1524,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <v>6</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="12" t="s">
         <v>60</v>
       </c>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="12" t="s">
         <v>61</v>
       </c>
@@ -1571,20 +1571,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -1601,6 +1587,20 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" location="Requirement!A1" display="Tham khảo chi tiết tại Sheet &quot;Requirement&quot;"/>
@@ -1615,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:C19"/>
     </sheetView>
   </sheetViews>
@@ -1885,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/01 Requirements engineering/Requirements Engineering.xlsx
+++ b/01 Requirements engineering/Requirements Engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Click để xem</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>Project overview</t>
   </si>
@@ -202,30 +226,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Share:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Chia sẻ thông tin qua...</t>
-    </r>
-  </si>
-  <si>
     <t>Requirement List</t>
   </si>
   <si>
@@ -281,22 +281,6 @@
       <t xml:space="preserve">
 - Lọc theo địa chỉ / Khu vực
 - Lọc theo loại Cơ sở dịch vụ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rate:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- View/Add/Edit Rate</t>
     </r>
   </si>
   <si>
@@ -326,6 +310,132 @@
     </r>
   </si>
   <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Add/ Modify/ Delete</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Phương thức</t>
+  </si>
+  <si>
+    <t>Thời gian thực hiện</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Weekly Report: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bên B gửi báo cáo tiến độ của các công việc đã thực hiện trong tuần cho Bên A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Demo Sản phẩm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thực hiện Demo sản phẩm đã đạt được</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bàn giao sản phẩm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bên B thực hiện bàn giao sản phẩm cho bên A qua Email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nghiệm thu sản phẩm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bên A thực hiện nghiệm thu sản phẩm qua Email</t>
+    </r>
+  </si>
+  <si>
+    <t>Tham khảo chi tiết tại Sheet "Requirement"</t>
+  </si>
+  <si>
+    <t>Hotel Management System</t>
+  </si>
+  <si>
+    <t>Bên B</t>
+  </si>
+  <si>
+    <t>Bên A</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -335,7 +445,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Share: </t>
+      <t>Comment:</t>
     </r>
     <r>
       <rPr>
@@ -345,44 +455,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-- Chia sẻ Thông tin Cơ sở dịch vụ với: Zalo, Facebook</t>
+      <t xml:space="preserve"> 
+- View/ Add/ Edit Comment</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Map:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Hiển thị danh sách các Cơ sở dịch vụ trên Map theo: từng loại của Cơ sở dịch vụ
-- Hiển thị đường đi tới Cơ sở dịch vụ đã lựa chọn trên Map
-- Lựa chọn Địa điểm trên Map</t>
-    </r>
-  </si>
-  <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Add/ Modify/ Delete</t>
+    <t>Commnunication Plan</t>
+  </si>
+  <si>
+    <t>Winform - Ngôn ngữ lập trình: C#</t>
+  </si>
+  <si>
+    <t>Tài liệu mô tả chức năng từng màn hình</t>
+  </si>
+  <si>
+    <t>Layout màn hình, Icon (File dạng PSD, PNG)</t>
+  </si>
+  <si>
+    <t>Tài liệu hướng dẫn Deploy.</t>
+  </si>
+  <si>
+    <t>Hệ thống hoạt động ổn định</t>
+  </si>
+  <si>
+    <t>Dựa vào yêu cầu chức năng (Tham khảo Sheet "Requirement") để thiết kế các xử lý chức năng chi tiết trên mỗi màn hình.</t>
+  </si>
+  <si>
+    <t>Thực hiện Review và Nghiệm thu sản phẩm.</t>
+  </si>
+  <si>
+    <t>Thực hiện thiết kế chi tiết Layout của tất cả các màn hình của hệ thống.</t>
+  </si>
+  <si>
+    <t>Thực hiện Xây dựng và cài đặt các hạ tầng cần thiết cho dự án</t>
+  </si>
+  <si>
+    <t>Thực hiện nghiệm thu về các thông tin, Account Admin của hạ tầng.</t>
+  </si>
+  <si>
+    <t>Thực hiện Code các chức năng của hệ thống
+Thực hiện Test để đảm bảo chức năng của hệ thống đã hoạt động đúng và đủ.
+Thực hiện Demo cho Bên A về Sản phẩm đã được xây dựng.</t>
+  </si>
+  <si>
+    <t>Thực hiện nghiệm thu sản phẩm.</t>
+  </si>
+  <si>
+    <t>Thực hiện Deploy sản phẩm trên hệ máy tính của A</t>
+  </si>
+  <si>
+    <t>Thực hiện đối ứng tất cả các bug phát sinh của hệ thống trong quá trình vận hành.</t>
+  </si>
+  <si>
+    <t>Github, SQL Sever</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Source code (Source code cần hoạt động bình thường).
+- Database (Database là bản SQL Server 2014 và hoạt động bình thường).
+- Tài liệu của Testing</t>
+  </si>
+  <si>
+    <t>Tham khảo chức năng của nhóm "Người sử dụng hệ thống"</t>
   </si>
   <si>
     <r>
@@ -407,7 +540,6 @@
       <t xml:space="preserve">
 - Tìm kiếm
 - Liên lạc
-- Rate
 </t>
     </r>
     <r>
@@ -429,156 +561,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Daily, Weekly, Monthly</t>
+      <t xml:space="preserve"> Ngày, Tuần, Tháng</t>
     </r>
   </si>
   <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Phương thức</t>
-  </si>
-  <si>
-    <t>Thời gian thực hiện</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Weekly Report: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Bên B gửi báo cáo tiến độ của các công việc đã thực hiện trong tuần cho Bên A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Demo Sản phẩm:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thực hiện Demo sản phẩm đã đạt được</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bàn giao sản phẩm:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Bên B thực hiện bàn giao sản phẩm cho bên A qua Email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nghiệm thu sản phẩm:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Bên A thực hiện nghiệm thu sản phẩm qua Email</t>
-    </r>
-  </si>
-  <si>
-    <t>Tham khảo chi tiết tại Sheet "Requirement"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Hotel Management System</t>
-  </si>
-  <si>
-    <t>Bên B</t>
-  </si>
-  <si>
-    <t>Bên A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comment:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- View/ Add/ Edit Comment</t>
-    </r>
-  </si>
-  <si>
-    <t>Commnunication Plan</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thứ 2 và Thứ 5 hằng tuần </t>
+  </si>
+  <si>
+    <t>Google Meet</t>
+  </si>
+  <si>
+    <t>Cập nhật hằng tuần</t>
+  </si>
+  <si>
+    <t>Git, Github</t>
+  </si>
+  <si>
+    <t>Thực hiện theo plan của dự án</t>
   </si>
 </sst>
 </file>
@@ -680,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -779,15 +781,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -813,14 +806,294 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="9"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="9"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -829,15 +1102,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,75 +1116,77 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,17 +1195,125 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,7 +1600,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,341 +1616,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="45">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="26" t="s">
+      <c r="E12" s="46">
+        <v>44143</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="45">
         <v>2</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="26" t="s">
+      <c r="C14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="46">
+        <v>44145</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="45">
         <v>3</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="C16" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="46">
+        <v>44150</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="45">
         <v>4</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18" t="s">
+      <c r="C18" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="46">
+        <v>44155</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="45">
         <v>5</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C20" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="46">
+        <v>44164</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="45">
         <v>6</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="22">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="22">
-        <v>2</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="22">
-        <v>3</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="22">
-        <v>4</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="22">
-        <v>5</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="22">
-        <v>6</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="D22" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="46">
+        <v>44194</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -1613,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,252 +2053,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
-        <v>1</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="5" t="s">
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="29">
+        <v>2</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
-        <v>2</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="4" t="s">
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="D20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B4:B21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="B4:B17"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
@@ -1886,7 +2283,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,66 +2295,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="70">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="70">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="70">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C6" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="72">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01 Requirements engineering/Requirements Engineering.xlsx
+++ b/01 Requirements engineering/Requirements Engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Project overview</t>
   </si>
@@ -102,103 +102,305 @@
     <t>#</t>
   </si>
   <si>
-    <t>Công đoạn</t>
-  </si>
-  <si>
-    <t>Sản phẩm bàn giao</t>
-  </si>
-  <si>
-    <t>Ngày bàn giao</t>
-  </si>
-  <si>
-    <t>Người phụ rách</t>
-  </si>
-  <si>
-    <t>Phạm vi công việc</t>
-  </si>
-  <si>
-    <t>Thiết kế chức năng hệ thống</t>
-  </si>
-  <si>
-    <t>Thiết kế layout</t>
-  </si>
-  <si>
-    <t>Xây dựng hạ tầng hệ thống</t>
-  </si>
-  <si>
-    <t>Xây dựng chức năng hệ thống</t>
-  </si>
-  <si>
-    <t>Triển khai hệ thống</t>
-  </si>
-  <si>
-    <t>Bảo trì hệ thống</t>
-  </si>
-  <si>
     <t>Project Overview</t>
   </si>
   <si>
-    <t>STT</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Nhóm người dùng</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Nhóm chức năng</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Chức năng</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Người sử dụng hệ thống</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Quản lý về Tài khoản</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Chức năng chung</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Người quản trị hệ thống</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Có chức năng sử dụng như 1 người dùng thông thường</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Chức năng quản trị</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Thống kê báo cáo</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Đăng ký Tài Khoản</t>
-  </si>
-  <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>Quên mật khẩu</t>
-  </si>
-  <si>
-    <t>Thay đổi mật khẩu</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin tài khoản</t>
+    <t>Requirement List</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Add/ Modify/ Delete</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Phương thức</t>
+  </si>
+  <si>
+    <t>Thời gian thực hiện</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Weekly Report: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bên B gửi báo cáo tiến độ của các công việc đã thực hiện trong tuần cho Bên A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Demo Sản phẩm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thực hiện Demo sản phẩm đã đạt được</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bàn giao sản phẩm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bên B thực hiện bàn giao sản phẩm cho bên A qua Email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nghiệm thu sản phẩm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bên A thực hiện nghiệm thu sản phẩm qua Email</t>
+    </r>
+  </si>
+  <si>
+    <t>Hotel Management System</t>
+  </si>
+  <si>
+    <t>Commnunication Plan</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thứ 2 và Thứ 5 hằng tuần </t>
+  </si>
+  <si>
+    <t>Google Meet</t>
+  </si>
+  <si>
+    <t>Cập nhật hằng tuần</t>
+  </si>
+  <si>
+    <t>Git, Github</t>
+  </si>
+  <si>
+    <t>Thực hiện theo plan của dự án</t>
+  </si>
+  <si>
+    <t>Refer to details at Sheet "Requirement"</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Handover products</t>
+  </si>
+  <si>
+    <t>Date of delivery</t>
+  </si>
+  <si>
+    <t>Person In Charge</t>
+  </si>
+  <si>
+    <t>Scope of work</t>
+  </si>
+  <si>
+    <t>Functional design of the system</t>
+  </si>
+  <si>
+    <t>Documentation describes the functions of each display interface</t>
+  </si>
+  <si>
+    <t>Based on the function requirements (Reference Sheet "Requirement") to design the detailed functional treatment on each interface page.</t>
+  </si>
+  <si>
+    <t>Review and test the product.</t>
+  </si>
+  <si>
+    <t>Layout design</t>
+  </si>
+  <si>
+    <t>Site layout, icon (link CDN)</t>
+  </si>
+  <si>
+    <t>Perform a detailed design Layout of all interfaces of the system.</t>
+  </si>
+  <si>
+    <t>Building infrastructure system</t>
+  </si>
+  <si>
+    <t>Github, MySQL</t>
+  </si>
+  <si>
+    <t>Perform Construction and installation of the necessary infrastructure for the project</t>
+  </si>
+  <si>
+    <t>Information verification, Account Admin of the infrastructure.</t>
+  </si>
+  <si>
+    <t>Build system functions</t>
+  </si>
+  <si>
+    <t>Source code (Source code needs to work properly).
+Database (The database is MySQL using phpMyAdmin version 5.0.4).
+Document test</t>
+  </si>
+  <si>
+    <t>Code implementation of system functions
+Perform Test to ensure the system functionality is working properly and fully.
+Performing Demo for Party A about the built product.</t>
+  </si>
+  <si>
+    <t>Product testing.</t>
+  </si>
+  <si>
+    <t>System deployment</t>
+  </si>
+  <si>
+    <t>Documentation Deploy.</t>
+  </si>
+  <si>
+    <t>Deploy the product on A computer system</t>
+  </si>
+  <si>
+    <t>System maintenance</t>
+  </si>
+  <si>
+    <t>The system works stably</t>
+  </si>
+  <si>
+    <t>Responding to all bugs arising of the system during the operation.</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Development Team</t>
+  </si>
+  <si>
+    <t>Web PHP, Bootstrap, MySQL</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>User groups</t>
+  </si>
+  <si>
+    <t>Functional group</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>System administrator</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>Management of Customer Information</t>
+  </si>
+  <si>
+    <t>Management of rooms and services</t>
+  </si>
+  <si>
+    <t>Register an Account</t>
+  </si>
+  <si>
+    <t>Login/Logout</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Update Account Infomation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Search with keywords</t>
+    </r>
   </si>
   <si>
     <r>
@@ -221,42 +423,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- Hiển thị theo danh mục
-- Hiển thị chi tiết thông tin</t>
+- Show by category
+- Show detailed information</t>
     </r>
-  </si>
-  <si>
-    <t>Requirement List</t>
-  </si>
-  <si>
-    <t>Quản lý về Thông tin khách hàng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Search: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Tìm với từ khóa</t>
-    </r>
-  </si>
-  <si>
-    <t>Quản lý về Dịch vụ</t>
   </si>
   <si>
     <r>
@@ -279,8 +448,32 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- Lọc theo địa chỉ / Khu vực
-- Lọc theo loại Cơ sở dịch vụ</t>
+- Filter by Address / Region
+- Filter by room type, price</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reviews and Comments:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- View/ Add/ Edit Comment</t>
     </r>
   </si>
   <si>
@@ -304,136 +497,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- Call: Phone
+- Phone Number
 - Email
-- Chat:  Skype, Zalo, Facebook Messeger</t>
+- Network Social:  Facebook, Zalo </t>
     </r>
   </si>
   <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Add/ Modify/ Delete</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Phương thức</t>
-  </si>
-  <si>
-    <t>Thời gian thực hiện</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Weekly Report: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Bên B gửi báo cáo tiến độ của các công việc đã thực hiện trong tuần cho Bên A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Demo Sản phẩm:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thực hiện Demo sản phẩm đã đạt được</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bàn giao sản phẩm:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Bên B thực hiện bàn giao sản phẩm cho bên A qua Email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nghiệm thu sản phẩm:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Bên A thực hiện nghiệm thu sản phẩm qua Email</t>
-    </r>
-  </si>
-  <si>
-    <t>Tham khảo chi tiết tại Sheet "Requirement"</t>
-  </si>
-  <si>
-    <t>Hotel Management System</t>
-  </si>
-  <si>
-    <t>Bên B</t>
-  </si>
-  <si>
-    <t>Bên A</t>
+    <t>General function</t>
+  </si>
+  <si>
+    <t>Functions used as a regular user</t>
+  </si>
+  <si>
+    <t>Refer to the functions of the "System user" group.</t>
+  </si>
+  <si>
+    <t>System user</t>
+  </si>
+  <si>
+    <t>Administrative functions</t>
+  </si>
+  <si>
+    <t>Reported statistics</t>
   </si>
   <si>
     <r>
@@ -445,7 +530,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Comment:</t>
+      <t xml:space="preserve">Statistics information of locations by information:
+</t>
     </r>
     <r>
       <rPr>
@@ -455,92 +541,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 
-- View/ Add/ Edit Comment</t>
-    </r>
-  </si>
-  <si>
-    <t>Commnunication Plan</t>
-  </si>
-  <si>
-    <t>Winform - Ngôn ngữ lập trình: C#</t>
-  </si>
-  <si>
-    <t>Tài liệu mô tả chức năng từng màn hình</t>
-  </si>
-  <si>
-    <t>Layout màn hình, Icon (File dạng PSD, PNG)</t>
-  </si>
-  <si>
-    <t>Tài liệu hướng dẫn Deploy.</t>
-  </si>
-  <si>
-    <t>Hệ thống hoạt động ổn định</t>
-  </si>
-  <si>
-    <t>Dựa vào yêu cầu chức năng (Tham khảo Sheet "Requirement") để thiết kế các xử lý chức năng chi tiết trên mỗi màn hình.</t>
-  </si>
-  <si>
-    <t>Thực hiện Review và Nghiệm thu sản phẩm.</t>
-  </si>
-  <si>
-    <t>Thực hiện thiết kế chi tiết Layout của tất cả các màn hình của hệ thống.</t>
-  </si>
-  <si>
-    <t>Thực hiện Xây dựng và cài đặt các hạ tầng cần thiết cho dự án</t>
-  </si>
-  <si>
-    <t>Thực hiện nghiệm thu về các thông tin, Account Admin của hạ tầng.</t>
-  </si>
-  <si>
-    <t>Thực hiện Code các chức năng của hệ thống
-Thực hiện Test để đảm bảo chức năng của hệ thống đã hoạt động đúng và đủ.
-Thực hiện Demo cho Bên A về Sản phẩm đã được xây dựng.</t>
-  </si>
-  <si>
-    <t>Thực hiện nghiệm thu sản phẩm.</t>
-  </si>
-  <si>
-    <t>Thực hiện Deploy sản phẩm trên hệ máy tính của A</t>
-  </si>
-  <si>
-    <t>Thực hiện đối ứng tất cả các bug phát sinh của hệ thống trong quá trình vận hành.</t>
-  </si>
-  <si>
-    <t>Github, SQL Sever</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Source code (Source code cần hoạt động bình thường).
-- Database (Database là bản SQL Server 2014 và hoạt động bình thường).
-- Tài liệu của Testing</t>
-  </si>
-  <si>
-    <t>Tham khảo chức năng của nhóm "Người sử dụng hệ thống"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thống kê thông tin các địa điểm theo thông tin:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Tìm kiếm
-- Liên lạc
-</t>
+      <t>- Search
+- Contact</t>
     </r>
     <r>
       <rPr>
@@ -551,7 +553,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thống kê:</t>
+      <t xml:space="preserve">
+Statistics: </t>
     </r>
     <r>
       <rPr>
@@ -561,26 +564,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Ngày, Tuần, Tháng</t>
+      <t>Day, Week, Month</t>
     </r>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thứ 2 và Thứ 5 hằng tuần </t>
-  </si>
-  <si>
-    <t>Google Meet</t>
-  </si>
-  <si>
-    <t>Cập nhật hằng tuần</t>
-  </si>
-  <si>
-    <t>Git, Github</t>
-  </si>
-  <si>
-    <t>Thực hiện theo plan của dự án</t>
   </si>
 </sst>
 </file>
@@ -682,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1093,6 +1078,32 @@
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,7 +1113,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1168,6 +1179,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,6 +1266,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1210,72 +1323,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1284,36 +1331,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1600,31 +1617,31 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="2.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1641,10 +1658,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1664,40 +1681,40 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="60" t="s">
-        <v>53</v>
+      <c r="C5" s="57"/>
+      <c r="D5" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="11"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="s">
-        <v>52</v>
+      <c r="C7" s="57"/>
+      <c r="D7" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1718,17 +1735,17 @@
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1740,234 +1757,234 @@
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>10</v>
+      <c r="C11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="H11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="45">
+      <c r="B12" s="54">
         <v>1</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="46">
+      <c r="C12" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="56">
         <v>44143</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="41" t="s">
-        <v>63</v>
+      <c r="G12" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>64</v>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="45">
+      <c r="B14" s="54">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="46">
+      <c r="C14" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="56">
         <v>44145</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>65</v>
+      <c r="G14" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>64</v>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="45">
+      <c r="B16" s="54">
         <v>3</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="C16" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="56">
         <v>44150</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="40" t="s">
-        <v>66</v>
+      <c r="G16" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>67</v>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="45">
+      <c r="B18" s="54">
         <v>4</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="46">
+      <c r="C18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="56">
         <v>44155</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="40" t="s">
-        <v>68</v>
+      <c r="G18" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>69</v>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="45">
+      <c r="B20" s="54">
         <v>5</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="46">
+      <c r="C20" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="56">
         <v>44164</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="56" t="s">
-        <v>70</v>
+      <c r="G20" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="57"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="45">
+      <c r="B22" s="54">
         <v>6</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="46">
+      <c r="C22" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="56">
         <v>44194</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="56" t="s">
-        <v>71</v>
+      <c r="G22" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="59"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1991,6 +2008,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
@@ -2007,27 +2042,9 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D7" location="Requirement!A1" display="Tham khảo chi tiết tại Sheet &quot;Requirement&quot;"/>
+    <hyperlink ref="D7" location="Requirement!A1" display="Refer to details at Sheet &quot;Requirement&quot;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
@@ -2037,241 +2054,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
     <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="63">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>24</v>
+      <c r="B4" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="64"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="32" t="s">
-        <v>37</v>
-      </c>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="64"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="64"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="32" t="s">
-        <v>39</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="38"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="66" t="s">
+        <v>74</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="63">
         <v>2</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="B17" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="64"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="65"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
@@ -2282,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,87 +2303,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
+      <c r="A1" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>47</v>
+      <c r="B3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="70">
+      <c r="A4" s="41">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="70">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="70">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>79</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="72">
+      <c r="A7" s="43">
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
